--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution:</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
+          <t>Compass abnormal Solution:</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-30</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,15 +1321,40 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4-30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>32-35</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,21 +937,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,21 +1137,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Compass abnormal Solution:</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution:</t>
+          <t>1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,40 +1321,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4-30</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>False</t>
         </is>
